--- a/biology/Botanique/Turnera/Turnera.xlsx
+++ b/biology/Botanique/Turnera/Turnera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turnera est un genre de plantes à fleurs de la famille des Passifloraceae, et dont l'espèce type est Turnera ulmifolia L.. Ce sont des plantes tropicales américaines.
 Ce genre compte autour de 163 espèces (et environ 43 taxons infra-spécifiques). Jusqu'en 2009, ce genre était placé dans la famille des Turneraceae.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Turnera a été créé par Carl von Linné en l'honneur du botaniste anglais William Turner (1508-1568).
 </t>
@@ -543,14 +557,16 @@
           <t>Liste partielle d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sélection d'espèces :
 Turnera diffusa Willd. ex Schult.
 Turnera guianensis Aubl.
 Turnera rupestris Aubl.
 Turnera ulmifolia L.
-Selon ITIS      (29/01/2011)[2] :
+Selon ITIS      (29/01/2011) :
 Turnera angustifolia Mill.
 Turnera arcuata 
 Turnera aurelii 
@@ -582,7 +598,7 @@
 Turnera ulmifolia L.
 Turnera velutina 
 Turnera weddelliana 
-Selon GBIF       (10 mai 2022)[3] :
+Selon GBIF       (10 mai 2022) :
 Turnera acangatinga Costa-Lima &amp; E.C.O.Chagas
 Turnera acaulis Griseb.
 Turnera acuta Willd. ex Schult.
